--- a/data/trans_dic/P16A06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.0312385476095932</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05767161037358176</v>
+        <v>0.05767161037358175</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02420542593526784</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01073782209438689</v>
+        <v>0.009418654730020765</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009195853826876614</v>
+        <v>0.009377051221181869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01360701728346991</v>
+        <v>0.0131000613304575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03297450908077723</v>
+        <v>0.03296564416596302</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01588968506375881</v>
+        <v>0.01420932031341785</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01766241962925245</v>
+        <v>0.01876038821833231</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01695049168784052</v>
+        <v>0.01539495519250203</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04112277841861769</v>
+        <v>0.04183015640997181</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01498087725077393</v>
+        <v>0.01489436449865192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01608768943779429</v>
+        <v>0.01660871985549351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01856232189191125</v>
+        <v>0.0181795202935106</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04169586639587479</v>
+        <v>0.04116327155152701</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03654589455300451</v>
+        <v>0.03592150482918046</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04274576232726039</v>
+        <v>0.04349195387916012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04981610178511287</v>
+        <v>0.05016034057437008</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06963202256867326</v>
+        <v>0.06962993668547443</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05916967508092191</v>
+        <v>0.0587933541184496</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06787642467638781</v>
+        <v>0.06887622556029652</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0607038635079847</v>
+        <v>0.05454920674920942</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07800423785136124</v>
+        <v>0.07985124026904718</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03741840522423237</v>
+        <v>0.03858426117158757</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.043581957300923</v>
+        <v>0.0439998734331149</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04403285255193465</v>
+        <v>0.04472295676889582</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06756098235375342</v>
+        <v>0.06709465182207125</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02124151498825226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04126270056174436</v>
+        <v>0.04126270056174435</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01990649038084521</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009607640049173883</v>
+        <v>0.007998840986568161</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009727773632315343</v>
+        <v>0.009703115590258059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01040766544065326</v>
+        <v>0.008171724611257343</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02595440452619272</v>
+        <v>0.02744359833372093</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008415178901728283</v>
+        <v>0.009296587579331042</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008852333438314718</v>
+        <v>0.008652627467733327</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01748569364324337</v>
+        <v>0.01930497098725878</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06078269554664257</v>
+        <v>0.06213526329214532</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01151668035896184</v>
+        <v>0.01137242811330743</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0118562950565178</v>
+        <v>0.01349302225446774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01755152062257724</v>
+        <v>0.01687987392449545</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04757652895798441</v>
+        <v>0.04694435594276477</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0422219691936519</v>
+        <v>0.04095131667388206</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0460958546016759</v>
+        <v>0.04850603670253267</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04049395708184601</v>
+        <v>0.0381894877995273</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06145615948290952</v>
+        <v>0.06180119618930253</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03987050225276742</v>
+        <v>0.04007378439168535</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04143073657904917</v>
+        <v>0.04122333455888906</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05798260005148494</v>
+        <v>0.05730037710911423</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1039964103667263</v>
+        <v>0.1081805009687928</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03344262016295899</v>
+        <v>0.03372729752031965</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03517838205392668</v>
+        <v>0.03797638400500444</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04102881978383888</v>
+        <v>0.04116854715323821</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07462750531354219</v>
+        <v>0.07483418009645611</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02407487301727467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05820126294453738</v>
+        <v>0.05820126294453737</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03997390700488521</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006917597253206792</v>
+        <v>0.006865016880200879</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01928287312637533</v>
+        <v>0.01968569600899678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01372359067757085</v>
+        <v>0.01313330025643465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03922413636153498</v>
+        <v>0.04008829221550415</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01709971941856293</v>
+        <v>0.01701799615342596</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02758256435711557</v>
+        <v>0.02440906535986983</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04748075690820675</v>
+        <v>0.04868981977852372</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09020619828705431</v>
+        <v>0.08693651328665314</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01110905400341928</v>
+        <v>0.01201422247824117</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02453300836977602</v>
+        <v>0.02405378831585446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02697077060586486</v>
+        <v>0.02626257738858171</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05995104680912053</v>
+        <v>0.0596431070654229</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02766958922161852</v>
+        <v>0.02643216137370185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04914443709354971</v>
+        <v>0.05056465781089934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04147587595759894</v>
+        <v>0.04101992215868887</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08304702978458857</v>
+        <v>0.08287425143335868</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08140397736204728</v>
+        <v>0.07424444994440246</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07999339074507292</v>
+        <v>0.07876212396546446</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1430098515333803</v>
+        <v>0.1378687718643948</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.159619583385169</v>
+        <v>0.1636660273814254</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03133302986586255</v>
+        <v>0.03135585800168628</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05008144819222338</v>
+        <v>0.04992005546818917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05740470435946935</v>
+        <v>0.05505070208532569</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0952250981985214</v>
+        <v>0.09707562591768892</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05443598314414094</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07209185076357272</v>
+        <v>0.0720918507635727</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02774298564904992</v>
@@ -1105,7 +1105,7 @@
         <v>0.04138490713791475</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06488290023264015</v>
+        <v>0.06488290023264016</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01651731725439488</v>
+        <v>0.01723742508552617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009625057892279385</v>
+        <v>0.009072504014140096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02197497767903389</v>
+        <v>0.02239076213140384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04821546272164262</v>
+        <v>0.04718903306428288</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02225719532281682</v>
+        <v>0.02271834359544998</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0282555164017804</v>
+        <v>0.02889467962719809</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0395211804312972</v>
+        <v>0.04123270683000181</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05914234820925994</v>
+        <v>0.06039982453863486</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02113437477974831</v>
+        <v>0.02087920948080692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0201276833745452</v>
+        <v>0.01949384214966115</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03330418284282548</v>
+        <v>0.03325237348523839</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05581253627865684</v>
+        <v>0.05578563712555316</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03443928976176623</v>
+        <v>0.03450852377838039</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02710067966645221</v>
+        <v>0.02765623332243977</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04380234806353428</v>
+        <v>0.04488169297307978</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07353665667642417</v>
+        <v>0.07425548248368219</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0489500491286237</v>
+        <v>0.05127521527827523</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0583545050691691</v>
+        <v>0.06025847512008038</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07198220027237646</v>
+        <v>0.0726823862930296</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08675959079609646</v>
+        <v>0.08640977616218327</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03528597107778606</v>
+        <v>0.03516915153880851</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03638993242491859</v>
+        <v>0.03616007917317899</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05103318964988489</v>
+        <v>0.05190369013987157</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07583596662567456</v>
+        <v>0.07440471711176901</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03061811830446756</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05252003945228057</v>
+        <v>0.05252003945228056</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0370350537373141</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01490961371064667</v>
+        <v>0.01666972911033357</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0109833339688407</v>
+        <v>0.01106078792140269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01926579963961382</v>
+        <v>0.01950225167300918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03809728590832185</v>
+        <v>0.0375489354215455</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02296644292574826</v>
+        <v>0.02422316337969928</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06383720312484513</v>
+        <v>0.06747612453367809</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07902892314854358</v>
+        <v>0.07942385871013033</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1346087664237761</v>
+        <v>0.1346660792800219</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02369933267269222</v>
+        <v>0.02366211231489585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0479171612065345</v>
+        <v>0.04739204009533487</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05450521505630081</v>
+        <v>0.05501372654622499</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09962147171509883</v>
+        <v>0.09768389441720121</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05412140418712298</v>
+        <v>0.05632735709895565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03716752233034707</v>
+        <v>0.0380973446064015</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04982211034632385</v>
+        <v>0.04731806345901737</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07034386340367781</v>
+        <v>0.07267562628535378</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05461723247804391</v>
+        <v>0.05674457118817934</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1078352746791559</v>
+        <v>0.1110167020188782</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1233481917833648</v>
+        <v>0.1249672839779901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1734672991385332</v>
+        <v>0.1730684533523142</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04751091059287973</v>
+        <v>0.04792131665055345</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0740126709630646</v>
+        <v>0.07413932331369709</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08250975500632529</v>
+        <v>0.08288186266034246</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1303230865918864</v>
+        <v>0.1268218901695324</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.08205134868337899</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1071760431353283</v>
+        <v>0.1071760431353282</v>
       </c>
     </row>
     <row r="20">
@@ -1393,31 +1393,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01506321778705301</v>
+        <v>0.01526592761205869</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04457756724966443</v>
+        <v>0.04550053892519003</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06888371942401351</v>
+        <v>0.0695468868775599</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08158572257827659</v>
+        <v>0.08430143591957122</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1079785322023318</v>
+        <v>0.1091975395660538</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03710906096019359</v>
+        <v>0.03566301787535097</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05579572374122117</v>
+        <v>0.05523881669687639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06774042963389361</v>
+        <v>0.06812706307431526</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09177948368919446</v>
+        <v>0.09158989423750993</v>
       </c>
     </row>
     <row r="21">
@@ -1430,34 +1430,34 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02608400848700818</v>
+        <v>0.0292433926299454</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08599329053331885</v>
+        <v>0.09769756597571404</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07046075745191144</v>
+        <v>0.0722127106510059</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1039342437502337</v>
+        <v>0.1036026893373619</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.121346686797134</v>
+        <v>0.1248719217186544</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1469911188732413</v>
+        <v>0.1483514358483761</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05790839512250016</v>
+        <v>0.05741806080103741</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08492984568805653</v>
+        <v>0.08313376127762581</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09791120091662356</v>
+        <v>0.09981481828602939</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1252676646906429</v>
+        <v>0.124738875878515</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.02658934356655259</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05240660403170243</v>
+        <v>0.05240660403170242</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.041642092808516</v>
@@ -1505,7 +1505,7 @@
         <v>0.05153809629518979</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07908394751528088</v>
+        <v>0.07908394751528089</v>
       </c>
     </row>
     <row r="23">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01577293330358535</v>
+        <v>0.01524794917508362</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01517356200320269</v>
+        <v>0.01529064221135558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02121248888164258</v>
+        <v>0.02124276688369857</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04629824904785737</v>
+        <v>0.04567126868974709</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0355256091101375</v>
+        <v>0.03510585944803275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05490974244885478</v>
+        <v>0.0549662236779489</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06681804457319143</v>
+        <v>0.06661311395952041</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09696942335468434</v>
+        <v>0.09586655301058034</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02652259307435401</v>
+        <v>0.02731140630832425</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03742212955344013</v>
+        <v>0.03710104411204612</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04629433063546718</v>
+        <v>0.04639664546737862</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07380809436020519</v>
+        <v>0.07380520262392093</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02492186815716843</v>
+        <v>0.02535667640722011</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02578228882821936</v>
+        <v>0.02532572590975515</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03259548013544996</v>
+        <v>0.03261552994829463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06091673144830174</v>
+        <v>0.06005831314303181</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04900893016561741</v>
+        <v>0.04918510588819518</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0720053704296344</v>
+        <v>0.07129751926446755</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08543653751270425</v>
+        <v>0.08583781389979382</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1127047119204308</v>
+        <v>0.1128728992193298</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03507052936541322</v>
+        <v>0.03561817345538622</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0471076704430156</v>
+        <v>0.04737804053400956</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05741202632969109</v>
+        <v>0.05689427293023396</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08481236348025659</v>
+        <v>0.08498606447442394</v>
       </c>
     </row>
     <row r="25">
@@ -1866,40 +1866,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5087</v>
+        <v>4462</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4021</v>
+        <v>4100</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5839</v>
+        <v>5621</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18156</v>
+        <v>18151</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4873</v>
+        <v>4358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5554</v>
+        <v>5899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5883</v>
+        <v>5343</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20085</v>
+        <v>20430</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11692</v>
+        <v>11624</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12093</v>
+        <v>12484</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14407</v>
+        <v>14110</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>43323</v>
+        <v>42770</v>
       </c>
     </row>
     <row r="7">
@@ -1910,40 +1910,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17315</v>
+        <v>17019</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18689</v>
+        <v>19015</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21376</v>
+        <v>21523</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38341</v>
+        <v>38339</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18146</v>
+        <v>18031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21344</v>
+        <v>21658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21068</v>
+        <v>18932</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38098</v>
+        <v>39000</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29203</v>
+        <v>30113</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32759</v>
+        <v>33073</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>34176</v>
+        <v>34712</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>70198</v>
+        <v>69713</v>
       </c>
     </row>
     <row r="8">
@@ -2046,40 +2046,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3525</v>
+        <v>2935</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4047</v>
+        <v>4036</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3926</v>
+        <v>3083</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12541</v>
+        <v>13261</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3129</v>
+        <v>3457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2968</v>
+        <v>2901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6509</v>
+        <v>7187</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25720</v>
+        <v>26292</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8509</v>
+        <v>8402</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8908</v>
+        <v>10137</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13155</v>
+        <v>12651</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43121</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="11">
@@ -2090,40 +2090,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15493</v>
+        <v>15026</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19175</v>
+        <v>20178</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15275</v>
+        <v>14406</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29696</v>
+        <v>29863</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14826</v>
+        <v>14902</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13892</v>
+        <v>13823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21585</v>
+        <v>21331</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44005</v>
+        <v>45776</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24707</v>
+        <v>24918</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26430</v>
+        <v>28532</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30751</v>
+        <v>30856</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>67639</v>
+        <v>67826</v>
       </c>
     </row>
     <row r="12">
@@ -2226,40 +2226,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3752</v>
+        <v>3724</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12078</v>
+        <v>12330</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7163</v>
+        <v>6854</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18499</v>
+        <v>18906</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2869</v>
+        <v>2855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7115</v>
+        <v>6296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7888</v>
+        <v>8088</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16913</v>
+        <v>16300</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7889</v>
+        <v>8532</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21694</v>
+        <v>21270</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18557</v>
+        <v>18070</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39514</v>
+        <v>39311</v>
       </c>
     </row>
     <row r="15">
@@ -2270,40 +2270,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15008</v>
+        <v>14337</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30781</v>
+        <v>31671</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21647</v>
+        <v>21409</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39166</v>
+        <v>39084</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13658</v>
+        <v>12457</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20633</v>
+        <v>20316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23757</v>
+        <v>22903</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29928</v>
+        <v>30687</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22252</v>
+        <v>22268</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>44286</v>
+        <v>44143</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>39497</v>
+        <v>37877</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62764</v>
+        <v>63983</v>
       </c>
     </row>
     <row r="16">
@@ -2406,40 +2406,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20454</v>
+        <v>21346</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11147</v>
+        <v>10507</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25263</v>
+        <v>25741</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54572</v>
+        <v>53411</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15898</v>
+        <v>16227</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21634</v>
+        <v>22123</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32640</v>
+        <v>34053</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50837</v>
+        <v>51918</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>41267</v>
+        <v>40769</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>38721</v>
+        <v>37502</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>65793</v>
+        <v>65691</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>111146</v>
+        <v>111092</v>
       </c>
     </row>
     <row r="19">
@@ -2450,40 +2450,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42647</v>
+        <v>42733</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31386</v>
+        <v>32030</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50357</v>
+        <v>51598</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>83232</v>
+        <v>84046</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34964</v>
+        <v>36625</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44679</v>
+        <v>46136</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59448</v>
+        <v>60027</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>74576</v>
+        <v>74275</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>68900</v>
+        <v>68672</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>70006</v>
+        <v>69564</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>100817</v>
+        <v>102536</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>151021</v>
+        <v>148171</v>
       </c>
     </row>
     <row r="20">
@@ -2586,40 +2586,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5211</v>
+        <v>5827</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5597</v>
+        <v>5636</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11958</v>
+        <v>12105</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21581</v>
+        <v>21271</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13062</v>
+        <v>13777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>48412</v>
+        <v>51172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>58343</v>
+        <v>58634</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>111647</v>
+        <v>111695</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>21763</v>
+        <v>21729</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>60756</v>
+        <v>60090</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>74070</v>
+        <v>74761</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>139062</v>
+        <v>136357</v>
       </c>
     </row>
     <row r="23">
@@ -2630,40 +2630,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18917</v>
+        <v>19688</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18939</v>
+        <v>19413</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30925</v>
+        <v>29371</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39848</v>
+        <v>41169</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31064</v>
+        <v>32274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>81779</v>
+        <v>84192</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>91061</v>
+        <v>92256</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143877</v>
+        <v>143546</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>43629</v>
+        <v>44006</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>93843</v>
+        <v>94004</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>112127</v>
+        <v>112632</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>181918</v>
+        <v>177031</v>
       </c>
     </row>
     <row r="24">
@@ -2771,31 +2771,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3573</v>
+        <v>3622</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>55667</v>
+        <v>56819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>76134</v>
+        <v>76867</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>88278</v>
+        <v>91216</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>91025</v>
+        <v>92053</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>57406</v>
+        <v>55169</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>76501</v>
+        <v>75738</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>92748</v>
+        <v>93278</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>99142</v>
+        <v>98937</v>
       </c>
     </row>
     <row r="27">
@@ -2808,34 +2808,34 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>7490</v>
+        <v>8397</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20400</v>
+        <v>23177</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>87989</v>
+        <v>90176</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>114874</v>
+        <v>114507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>131300</v>
+        <v>135115</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>123912</v>
+        <v>125059</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>89582</v>
+        <v>88823</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>116447</v>
+        <v>113985</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>134057</v>
+        <v>136663</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>135317</v>
+        <v>134746</v>
       </c>
     </row>
     <row r="28">
@@ -2938,40 +2938,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>51564</v>
+        <v>49848</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>51788</v>
+        <v>52188</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71820</v>
+        <v>71922</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>159312</v>
+        <v>157155</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>120010</v>
+        <v>118592</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>194214</v>
+        <v>194414</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>235974</v>
+        <v>235251</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>352099</v>
+        <v>348095</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>176304</v>
+        <v>181547</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>260086</v>
+        <v>257854</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>320233</v>
+        <v>320940</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>521973</v>
+        <v>521952</v>
       </c>
     </row>
     <row r="31">
@@ -2982,40 +2982,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>81474</v>
+        <v>82895</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>87997</v>
+        <v>86439</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>110359</v>
+        <v>110427</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>209614</v>
+        <v>206660</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>165558</v>
+        <v>166153</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>254681</v>
+        <v>252178</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>301727</v>
+        <v>303144</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>409234</v>
+        <v>409845</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>233124</v>
+        <v>236765</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>327401</v>
+        <v>329280</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>397137</v>
+        <v>393556</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>599795</v>
+        <v>601024</v>
       </c>
     </row>
     <row r="32">
